--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết Kế Dữ Liệu/temp/Section.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết Kế Dữ Liệu/temp/Section.xlsx
@@ -117,7 +117,7 @@
     <t>project_id</t>
   </si>
   <si>
-    <t>Duy nhất, theo định dạng "PJ00001"</t>
+    <t>Theo định dạng "PJ00001"</t>
   </si>
   <si>
     <t>"PJ00001"</t>
@@ -130,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -145,6 +145,10 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -202,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -218,16 +222,19 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -500,22 +507,22 @@
       <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="3"/>
@@ -543,10 +550,10 @@
       <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -558,7 +565,7 @@
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="3"/>
@@ -586,10 +593,10 @@
       <c r="A4" s="4">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -601,7 +608,7 @@
       <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="3"/>
@@ -629,7 +636,7 @@
       <c r="A5" s="4">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -638,13 +645,13 @@
       <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="3"/>
@@ -672,7 +679,7 @@
       <c r="A6" s="4">
         <v>5.0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -684,10 +691,10 @@
       <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="3"/>
@@ -715,22 +722,22 @@
       <c r="A7" s="4">
         <v>6.0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3"/>
